--- a/Output/TotalCourse.xlsx
+++ b/Output/TotalCourse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="16">
   <si>
     <t>COURSE ARE :</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Approx. 25 hours to complete</t>
+  </si>
+  <si>
+    <t>Build Your Portfolio Website with HTML and CSS</t>
   </si>
 </sst>
 </file>
@@ -434,13 +437,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -459,13 +462,13 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1">

--- a/Output/TotalCourse.xlsx
+++ b/Output/TotalCourse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="16">
   <si>
     <t>COURSE ARE :</t>
   </si>

--- a/Output/TotalCourse.xlsx
+++ b/Output/TotalCourse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="16">
   <si>
     <t>COURSE ARE :</t>
   </si>
@@ -437,10 +437,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -462,10 +462,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
